--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1179396666666667</v>
+        <v>0.113642</v>
       </c>
       <c r="H2">
-        <v>0.353819</v>
+        <v>0.340926</v>
       </c>
       <c r="I2">
-        <v>0.1771592059007171</v>
+        <v>0.7883210666148713</v>
       </c>
       <c r="J2">
-        <v>0.1771592059007171</v>
+        <v>0.7883210666148713</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>6.593800604796001</v>
+        <v>4.381203281753333</v>
       </c>
       <c r="R2">
-        <v>59.34420544316401</v>
+        <v>39.43082953578</v>
       </c>
       <c r="S2">
-        <v>0.113602306512829</v>
+        <v>0.4539272310275627</v>
       </c>
       <c r="T2">
-        <v>0.113602306512829</v>
+        <v>0.4539272310275627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1179396666666667</v>
+        <v>0.113642</v>
       </c>
       <c r="H3">
-        <v>0.353819</v>
+        <v>0.340926</v>
       </c>
       <c r="I3">
-        <v>0.1771592059007171</v>
+        <v>0.7883210666148713</v>
       </c>
       <c r="J3">
-        <v>0.1771592059007171</v>
+        <v>0.7883210666148713</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>0.6334157372146666</v>
+        <v>0.6103343619920001</v>
       </c>
       <c r="R3">
-        <v>5.700741634931999</v>
+        <v>5.493009257928001</v>
       </c>
       <c r="S3">
-        <v>0.01091290031985071</v>
+        <v>0.06323545590633491</v>
       </c>
       <c r="T3">
-        <v>0.01091290031985071</v>
+        <v>0.06323545590633492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1179396666666667</v>
+        <v>0.113642</v>
       </c>
       <c r="H4">
-        <v>0.353819</v>
+        <v>0.340926</v>
       </c>
       <c r="I4">
-        <v>0.1771592059007171</v>
+        <v>0.7883210666148713</v>
       </c>
       <c r="J4">
-        <v>0.1771592059007171</v>
+        <v>0.7883210666148713</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>3.055607263172111</v>
+        <v>2.617159539523333</v>
       </c>
       <c r="R4">
-        <v>27.500465368549</v>
+        <v>23.55443585571</v>
       </c>
       <c r="S4">
-        <v>0.05264399906803735</v>
+        <v>0.2711583796809736</v>
       </c>
       <c r="T4">
-        <v>0.05264399906803735</v>
+        <v>0.2711583796809736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.5477873333333333</v>
+        <v>0.030515</v>
       </c>
       <c r="H5">
-        <v>1.643362</v>
+        <v>0.091545</v>
       </c>
       <c r="I5">
-        <v>0.8228407940992829</v>
+        <v>0.2116789333851287</v>
       </c>
       <c r="J5">
-        <v>0.822840794099283</v>
+        <v>0.2116789333851287</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N5">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q5">
-        <v>30.625832274408</v>
+        <v>1.176434928483333</v>
       </c>
       <c r="R5">
-        <v>275.632490469672</v>
+        <v>10.58791435635</v>
       </c>
       <c r="S5">
-        <v>0.5276418553993304</v>
+        <v>0.1218879415603921</v>
       </c>
       <c r="T5">
-        <v>0.5276418553993304</v>
+        <v>0.1218879415603921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.5477873333333333</v>
+        <v>0.030515</v>
       </c>
       <c r="H6">
-        <v>1.643362</v>
+        <v>0.091545</v>
       </c>
       <c r="I6">
-        <v>0.8228407940992829</v>
+        <v>0.2116789333851287</v>
       </c>
       <c r="J6">
-        <v>0.822840794099283</v>
+        <v>0.2116789333851287</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q6">
-        <v>2.941988284237333</v>
+        <v>0.16388617814</v>
       </c>
       <c r="R6">
-        <v>26.477894558136</v>
+        <v>1.47497560326</v>
       </c>
       <c r="S6">
-        <v>0.05068649703783716</v>
+        <v>0.0169799012423383</v>
       </c>
       <c r="T6">
-        <v>0.05068649703783717</v>
+        <v>0.01697990124233831</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.5477873333333333</v>
+        <v>0.030515</v>
       </c>
       <c r="H7">
-        <v>1.643362</v>
+        <v>0.091545</v>
       </c>
       <c r="I7">
-        <v>0.8228407940992829</v>
+        <v>0.2116789333851287</v>
       </c>
       <c r="J7">
-        <v>0.822840794099283</v>
+        <v>0.2116789333851287</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N7">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q7">
-        <v>14.19219675376689</v>
+        <v>0.7027562287583333</v>
       </c>
       <c r="R7">
-        <v>127.729770783902</v>
+        <v>6.324806058825</v>
       </c>
       <c r="S7">
-        <v>0.2445124416621153</v>
+        <v>0.07281109058239831</v>
       </c>
       <c r="T7">
-        <v>0.2445124416621154</v>
+        <v>0.07281109058239832</v>
       </c>
     </row>
   </sheetData>
